--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,211 +58,214 @@
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>tried</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>work</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>looks</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>ordered</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>5</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>got</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>much</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>really</t>
   </si>
   <si>
     <t>negative</t>
@@ -277,6 +280,9 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -298,15 +304,15 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -316,19 +322,22 @@
     <t>enjoy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -692,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -779,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>0.8148148148148148</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -803,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -811,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>0.8035714285714286</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -861,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5">
-        <v>0.7846153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -903,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -911,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -929,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -953,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7427184466019418</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -979,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>0.6226415094339622</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1011,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <v>0.546875</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1053,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1061,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7094594594594594</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1079,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>0.463768115942029</v>
+        <v>0.546875</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1103,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1129,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10">
-        <v>0.3786885245901639</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L10">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1153,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>758</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,7 +1170,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6052631578947368</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -1179,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>0.3342898134863702</v>
+        <v>0.3721311475409836</v>
       </c>
       <c r="L11">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="M11">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>464</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12">
-        <v>0.2655601659751037</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>354</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>0.25</v>
+        <v>0.2987551867219917</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1311,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5966386554621849</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14">
-        <v>0.2262996941896024</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="L14">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>253</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1364,10 +1373,10 @@
         <v>0.5925925925925926</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1379,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1429,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>0.201058201058201</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>151</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1461,37 +1470,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17">
-        <v>0.171875</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1532,28 +1541,28 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>0.145945945945946</v>
+        <v>0.1640625</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>158</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1561,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5301204819277109</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1579,31 +1588,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19">
-        <v>0.1365461847389558</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1611,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5079365079365079</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,31 +1638,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20">
-        <v>0.1071115013169447</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L20">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1017</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1661,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1679,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21">
-        <v>0.1048951048951049</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1703,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>128</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1729,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22">
-        <v>0.06298701298701298</v>
+        <v>0.1070175438596491</v>
       </c>
       <c r="L22">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="M22">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="N22">
         <v>0.99</v>
@@ -1753,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1443</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4960629921259843</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1779,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23">
-        <v>0.04735376044568245</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1803,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1811,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4840579710144928</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C24">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1829,31 +1838,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24">
-        <v>0.03070761014686248</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>726</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1870,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4631578947368421</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,7 +1888,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25">
+        <v>0.05256327060350422</v>
+      </c>
+      <c r="L25">
+        <v>81</v>
+      </c>
+      <c r="M25">
+        <v>81</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1460</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1920,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.421875</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,7 +1938,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26">
+        <v>0.03070761014686248</v>
+      </c>
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>0.88</v>
+      </c>
+      <c r="O26">
+        <v>0.12</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1970,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4181818181818182</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1996,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.390625</v>
+        <v>0.375</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1965,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3613861386138614</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C29">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1983,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1991,13 +2048,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3483146067415731</v>
+        <v>0.3459715639810427</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2009,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2017,13 +2074,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3469387755102041</v>
+        <v>0.328125</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2035,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2043,13 +2100,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3412322274881517</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2061,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2069,13 +2126,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2087,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2095,13 +2152,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2113,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2121,13 +2178,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2139,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2147,13 +2204,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2857142857142857</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2165,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2173,13 +2230,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2463768115942029</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2191,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2199,13 +2256,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2436708860759494</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C38">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2217,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>239</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2225,13 +2282,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2319587628865979</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2243,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2251,13 +2308,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.225</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C40">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2269,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>155</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2277,13 +2334,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2181008902077151</v>
+        <v>0.2246835443037975</v>
       </c>
       <c r="C41">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="D41">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2295,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>527</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2303,13 +2360,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.217948717948718</v>
+        <v>0.215</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2321,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>61</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2329,25 +2386,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.213768115942029</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>59</v>
-      </c>
-      <c r="D43">
-        <v>59</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2355,13 +2412,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1978021978021978</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2373,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2381,25 +2438,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1938775510204082</v>
+        <v>0.2020802377414562</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>79</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2407,13 +2464,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.189873417721519</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2425,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2433,13 +2490,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1785714285714286</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2451,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2459,13 +2516,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1759259259259259</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2477,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2485,25 +2542,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1719745222929936</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2511,13 +2568,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1542857142857143</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2529,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2537,13 +2594,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1542056074766355</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2555,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2563,13 +2620,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1541850220264317</v>
+        <v>0.16</v>
       </c>
       <c r="C52">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2581,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>384</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2589,13 +2646,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1450381679389313</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2607,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2615,25 +2672,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1440922190201729</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D54">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>297</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2641,25 +2698,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1401098901098901</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E55">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>313</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2667,13 +2724,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1376146788990826</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2685,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2693,25 +2750,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1336032388663968</v>
+        <v>0.1328125</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>214</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2719,13 +2776,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1311475409836066</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2737,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>159</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2745,25 +2802,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1181102362204724</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>112</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2771,13 +2828,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1151832460732984</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2789,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>169</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2797,25 +2854,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1145833333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2823,25 +2880,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.112781954887218</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>236</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2849,13 +2906,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1111111111111111</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2867,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2875,13 +2932,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1075949367088608</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2893,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2901,25 +2958,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1058823529411765</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>152</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2927,25 +2984,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.08580858085808581</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C66">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>554</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2953,25 +3010,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08450704225352113</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>325</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2979,25 +3036,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08021390374331551</v>
+        <v>0.08273381294964029</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E68">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F68">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>172</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3005,25 +3062,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.075</v>
+        <v>0.07962529274004684</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>259</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3031,25 +3088,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.06904231625835189</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3057,25 +3114,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06012658227848101</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3083,25 +3140,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.04857142857142857</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F72">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3109,25 +3166,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04689480354879594</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F73">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>752</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3135,25 +3192,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.04662004662004662</v>
+        <v>0.03924050632911392</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E74">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="F74">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>409</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3161,25 +3218,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.03828483920367534</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="C75">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F75">
-        <v>0.9299999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>628</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3187,25 +3244,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.03777335984095427</v>
+        <v>0.03373015873015873</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3213,25 +3270,51 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03755868544600939</v>
+        <v>0.03363914373088685</v>
       </c>
       <c r="C77">
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>23</v>
+      </c>
+      <c r="E77">
+        <v>0.04</v>
+      </c>
+      <c r="F77">
+        <v>0.96</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.03205128205128205</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
         <v>16</v>
       </c>
-      <c r="D77">
-        <v>19</v>
-      </c>
-      <c r="E77">
-        <v>0.16</v>
-      </c>
-      <c r="F77">
-        <v>0.84</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>410</v>
+      <c r="E78">
+        <v>0.06</v>
+      </c>
+      <c r="F78">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
